--- a/documentation/Proposal.xlsx
+++ b/documentation/Proposal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57CA91-827D-4A09-8DFF-0FFF0CAB19A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E62CEF-AD1A-4798-9216-03245E1D4D6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Our device is suppose to use thermal cameras in each of the desired rooms to detect human heat signature to determine number of people in the room. The light sensor will determine if room light is on give the user the ability to shut it on and off through the app and effeciently control electrcity bills. Finally, the BME280 will be used to determine the room temperature for user comfort. All this info will be sent to a device and transmitted to the app</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>https://github.com/KogulB/CENG355Project</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
 doi: 10.1109/CCE.2016.7562634
 keywords: {infrared detectors;local area networks;scheduling;sensor fusion;transport protocols;smart meeting room scheduling and management system;ad-hoc support;utilization control;real-time occupancy detection;meeting room occupancy status detection;scheduling application;ease-of-implementation solution;PIR sensor fusion device;Ethernet connectivity;UDP;IP protocol;web application;Scheduling;Servers;Real-time systems;Software;IP networks;Microcontrollers;Sockets;meeting scheduling;room management;real-time occupancy detection;utilization control;ad-hoc meetings},
 URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7562634&amp;isnumber=7562597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference Services </t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -585,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="232" x14ac:dyDescent="0.35">
@@ -625,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -760,7 +760,7 @@
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v>N/A</v>
+        <v xml:space="preserve">Conference Services </v>
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>

--- a/documentation/Proposal.xlsx
+++ b/documentation/Proposal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E62CEF-AD1A-4798-9216-03245E1D4D6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636EA64-DB41-4754-B097-C57CB095BAF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -71,49 +71,46 @@
     <t>SensorsEffectors choices</t>
   </si>
   <si>
-    <t>Senzer Room Monitor</t>
-  </si>
-  <si>
     <t>Kogul Balasubramaniam, Kyele Haynes, Samuel Dadet</t>
   </si>
   <si>
     <t xml:space="preserve"> YL-40 PCF8591 (0x48), AMG8833 IR Thermal Camera Breakout (0x69), BME280 Temp/Barometric/Humidity (0x77)</t>
   </si>
   <si>
-    <t>Infared Temperature data, Occupancy and Luminosity of The room(how often light is left on)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Being able to see what room is in use at what time. Checking whether the light is on in the room and have the ability to turn it on and off with the app. Finally being able to view the temperature of the room and adjust it accordingly. Any data taken from the sensors is stored and can be viewed with adminstrative privileges. </t>
-  </si>
-  <si>
     <t>Samuel Dadet, Kyele Haynes and Kogul Balasubramaniam</t>
   </si>
   <si>
-    <t>In this day and age meeting rooms are essential for day to day business ventures and or  group projects. There is no way of understanding if the room is empty or being used by someone who booked it or decided to drop in or even checking if the rooms light has been turned on or off. Which in turn affects productivity and effeictviely costs the users time and or money.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office Buildings and schools tend to have day to day problems of rooms being in high demand. These rooms are essential for day to day life operations and provide schools and businesses space to plan out crucial things. However, they are not monitored properly to ensure that people are using them efficently or if anyone is using them at all even when there is a booking. Having a device that monitors if these rooms are being used or check whether that light is on and even being able to detect room temperature provide vital information. </t>
-  </si>
-  <si>
-    <t>We will be purchasing a Rpi 3 to use as our main circuit board and a Thermal Camera to detect human heat signature. As well as a Light Sensor(PCF 8591) to detect if the rooms light was left on or not and a BME280 to detect the temperature of the room when people enter and exit.</t>
-  </si>
-  <si>
-    <t>Our device is suppose to use thermal cameras in each of the desired rooms to detect human heat signature to determine number of people in the room. The light sensor will determine if room light is on give the user the ability to shut it on and off through the app and effeciently control electrcity bills. Finally, the BME280 will be used to determine the room temperature for user comfort. All this info will be sent to a device and transmitted to the app</t>
-  </si>
-  <si>
     <t>https://github.com/KogulB/CENG355Project</t>
   </si>
   <si>
-    <t>DiLouie, C., Peat, A., &amp; Alexander, G. (2017, August 22). All About Occupancy and Vacancy Sensors. Retrieved January 17, 2019, from https://lightingcontrolsassociation.org/2017/08/21/all-about-occupancy-and-vacancy-sensors/</t>
-  </si>
-  <si>
-    <t>L. D. Tran et al., "A smart meeting room scheduling and management system with utilization control and ad-hoc support based on real-time occupancy detection," 2016 IEEE Sixth International Conference on Communications and Electronics (ICCE), Ha Long, 2016, pp. 186-191.
-doi: 10.1109/CCE.2016.7562634
-keywords: {infrared detectors;local area networks;scheduling;sensor fusion;transport protocols;smart meeting room scheduling and management system;ad-hoc support;utilization control;real-time occupancy detection;meeting room occupancy status detection;scheduling application;ease-of-implementation solution;PIR sensor fusion device;Ethernet connectivity;UDP;IP protocol;web application;Scheduling;Servers;Real-time systems;Software;IP networks;Microcontrollers;Sockets;meeting scheduling;room management;real-time occupancy detection;utilization control;ad-hoc meetings},
-URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7562634&amp;isnumber=7562597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference Services </t>
+    <t xml:space="preserve">Engine Temperature, Air Intake Pressure and Luminosity of the headlights </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Being able to see basic maintenance information for the Baja racing vehicle. Checking the headlight luminosity coming from the car to check if it is reaching high levels. The app will respond by changing colors to let the vehicle owner know that something is wrong. The Air Intake Pressure will also be available to let the driver know if there is any concerns. The value can be seen in Hpa or PSI. Finally, The Engine Temperature reading will also be present to let the driver know if the engine is overheating or not. This value is also available to be seen in Celsius or Fahrenheit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja Racing  Vechicles </t>
+  </si>
+  <si>
+    <t>SenzerCar</t>
+  </si>
+  <si>
+    <t>Gilsdorf, J. M., Vercauteren, K. C., Hygnstrom, S. E., Walter, W. D., Boner, J. R., &amp; Clements, G. M. (2008). An integrated vehicle-mounted telemetry system for VHF telemetry applications. Journal of Wildlife Management, 72(5), 1241-1246. Retrieved from http://ezproxy.humber.ca/login?url=https://search-proquest-com.ezproxy.humber.ca/docview/234179670?accountid=11530</t>
+  </si>
+  <si>
+    <t>In today's society many automobiles come equipped with various sensors that provide the driver with basic maintenance information so he/she knows when to take it in for service. This informations helps the driver diagnose the problem and even possibly let them know before hand if there vehicle is in possible engine failure. Our projects focus is on providing a simple telemetry system for Baja racing vehicles. We provide simple maintenance information for the racer to diagnose their own vehicle. Information such as Air Intake Pressure, Engine Temperature and Headlight Luminosity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja Racing Vehicles are raced in the SAE off-road motorsport  competition every year by competing universities all over the world. The vehicles require less maintenance than your common automobile. However,  some maintenance is still required. Our product is engineered towards helping the user distinguish if is vehicles is experience simple maintenance issues or is on the way to shutting down due to engine failure. Are three sensors used with a Rpi 3 powered with a step down converter connected to the vehicle provides crucial information that helps the driver diagnose there vehicle and provide simple maintenance. </t>
+  </si>
+  <si>
+    <t>We will be purchasing a Rpi 3 to use as our main circuit board and a Thermal Camera to detect  heat signature. As well as a Light Sensor(PCF 8591) to detect if the headlight was left on or not as well as if its reaching high levels. A BME280 to detect the pressure of the intake in the vehicle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our System uses the thermal sensor to detect the engine temperature and changes the background if engine is starting to overheat. The Light Sensor detects Headlight luminosity and then displays it as a value and changes application background depending on if the light is reaching high levels. Finally, a pressure sensor to detect the intake pressure.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leonardo Presoto de Oliveira, Marco Aurélio Wehrmeister, AndréSchneider de Oliveira, "Systematic Literature Review on Automotive Diagnostics", Computing Systems Engineering (SBESC) 2017 VII Brazilian Symposium on, pp. 1-8, 2017.</t>
   </si>
 </sst>
 </file>
@@ -513,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -545,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +550,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -561,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -569,15 +566,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -585,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -593,39 +590,39 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
@@ -633,15 +630,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +733,7 @@
       </c>
       <c r="B2" s="2" t="str">
         <f>DataEntry!B2</f>
-        <v>Senzer Room Monitor</v>
+        <v>SenzerCar</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
@@ -752,15 +749,15 @@
       </c>
       <c r="F2" s="2" t="str">
         <f>DataEntry!B6</f>
-        <v>Infared Temperature data, Occupancy and Luminosity of The room(how often light is left on)</v>
+        <v xml:space="preserve">Engine Temperature, Air Intake Pressure and Luminosity of the headlights </v>
       </c>
       <c r="G2" s="2" t="str">
         <f>DataEntry!B7</f>
-        <v xml:space="preserve">Being able to see what room is in use at what time. Checking whether the light is on in the room and have the ability to turn it on and off with the app. Finally being able to view the temperature of the room and adjust it accordingly. Any data taken from the sensors is stored and can be viewed with adminstrative privileges. </v>
+        <v xml:space="preserve">Being able to see basic maintenance information for the Baja racing vehicle. Checking the headlight luminosity coming from the car to check if it is reaching high levels. The app will respond by changing colors to let the vehicle owner know that something is wrong. The Air Intake Pressure will also be available to let the driver know if there is any concerns. The value can be seen in Hpa or PSI. Finally, The Engine Temperature reading will also be present to let the driver know if the engine is overheating or not. This value is also available to be seen in Celsius or Fahrenheit  </v>
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v xml:space="preserve">Conference Services </v>
+        <v xml:space="preserve">Baja Racing  Vechicles </v>
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
@@ -768,30 +765,27 @@
       </c>
       <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>
-        <v>In this day and age meeting rooms are essential for day to day business ventures and or  group projects. There is no way of understanding if the room is empty or being used by someone who booked it or decided to drop in or even checking if the rooms light has been turned on or off. Which in turn affects productivity and effeictviely costs the users time and or money.</v>
+        <v>In today's society many automobiles come equipped with various sensors that provide the driver with basic maintenance information so he/she knows when to take it in for service. This informations helps the driver diagnose the problem and even possibly let them know before hand if there vehicle is in possible engine failure. Our projects focus is on providing a simple telemetry system for Baja racing vehicles. We provide simple maintenance information for the racer to diagnose their own vehicle. Information such as Air Intake Pressure, Engine Temperature and Headlight Luminosity.</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>DataEntry!B11</f>
-        <v xml:space="preserve">Office Buildings and schools tend to have day to day problems of rooms being in high demand. These rooms are essential for day to day life operations and provide schools and businesses space to plan out crucial things. However, they are not monitored properly to ensure that people are using them efficently or if anyone is using them at all even when there is a booking. Having a device that monitors if these rooms are being used or check whether that light is on and even being able to detect room temperature provide vital information. </v>
+        <v xml:space="preserve">Baja Racing Vehicles are raced in the SAE off-road motorsport  competition every year by competing universities all over the world. The vehicles require less maintenance than your common automobile. However,  some maintenance is still required. Our product is engineered towards helping the user distinguish if is vehicles is experience simple maintenance issues or is on the way to shutting down due to engine failure. Are three sensors used with a Rpi 3 powered with a step down converter connected to the vehicle provides crucial information that helps the driver diagnose there vehicle and provide simple maintenance. </v>
       </c>
       <c r="L2" s="2" t="str">
         <f>DataEntry!B12</f>
-        <v>DiLouie, C., Peat, A., &amp; Alexander, G. (2017, August 22). All About Occupancy and Vacancy Sensors. Retrieved January 17, 2019, from https://lightingcontrolsassociation.org/2017/08/21/all-about-occupancy-and-vacancy-sensors/</v>
+        <v>Gilsdorf, J. M., Vercauteren, K. C., Hygnstrom, S. E., Walter, W. D., Boner, J. R., &amp; Clements, G. M. (2008). An integrated vehicle-mounted telemetry system for VHF telemetry applications. Journal of Wildlife Management, 72(5), 1241-1246. Retrieved from http://ezproxy.humber.ca/login?url=https://search-proquest-com.ezproxy.humber.ca/docview/234179670?accountid=11530</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>DataEntry!B13</f>
-        <v>L. D. Tran et al., "A smart meeting room scheduling and management system with utilization control and ad-hoc support based on real-time occupancy detection," 2016 IEEE Sixth International Conference on Communications and Electronics (ICCE), Ha Long, 2016, pp. 186-191.
-doi: 10.1109/CCE.2016.7562634
-keywords: {infrared detectors;local area networks;scheduling;sensor fusion;transport protocols;smart meeting room scheduling and management system;ad-hoc support;utilization control;real-time occupancy detection;meeting room occupancy status detection;scheduling application;ease-of-implementation solution;PIR sensor fusion device;Ethernet connectivity;UDP;IP protocol;web application;Scheduling;Servers;Real-time systems;Software;IP networks;Microcontrollers;Sockets;meeting scheduling;room management;real-time occupancy detection;utilization control;ad-hoc meetings},
-URL: http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7562634&amp;isnumber=7562597</v>
+        <v xml:space="preserve"> Leonardo Presoto de Oliveira, Marco Aurélio Wehrmeister, AndréSchneider de Oliveira, "Systematic Literature Review on Automotive Diagnostics", Computing Systems Engineering (SBESC) 2017 VII Brazilian Symposium on, pp. 1-8, 2017.</v>
       </c>
       <c r="N2" s="2" t="str">
         <f>DataEntry!B14</f>
-        <v>We will be purchasing a Rpi 3 to use as our main circuit board and a Thermal Camera to detect human heat signature. As well as a Light Sensor(PCF 8591) to detect if the rooms light was left on or not and a BME280 to detect the temperature of the room when people enter and exit.</v>
+        <v>We will be purchasing a Rpi 3 to use as our main circuit board and a Thermal Camera to detect  heat signature. As well as a Light Sensor(PCF 8591) to detect if the headlight was left on or not as well as if its reaching high levels. A BME280 to detect the pressure of the intake in the vehicle.</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>DataEntry!B15</f>
-        <v>Our device is suppose to use thermal cameras in each of the desired rooms to detect human heat signature to determine number of people in the room. The light sensor will determine if room light is on give the user the ability to shut it on and off through the app and effeciently control electrcity bills. Finally, the BME280 will be used to determine the room temperature for user comfort. All this info will be sent to a device and transmitted to the app</v>
+        <v xml:space="preserve">Our System uses the thermal sensor to detect the engine temperature and changes the background if engine is starting to overheat. The Light Sensor detects Headlight luminosity and then displays it as a value and changes application background depending on if the light is reaching high levels. Finally, a pressure sensor to detect the intake pressure.  </v>
       </c>
     </row>
   </sheetData>
